--- a/01_data/lookup_tables/tracker_category_description-2025-01-09.xlsx
+++ b/01_data/lookup_tables/tracker_category_description-2025-01-09.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Seagate/eCommerce-Goethe Dropbox/Karlo Lukic/01-doctorate/00_research_projects/01_impact_of_GDPR_on_online_tracking/01_data/lookup_tables/tracker_category_description/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlolukic/Documents/impact-of-GDPR-on-online-tracking-2025-01-10/01_data/lookup_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0B6EE1-B0B9-E84F-AC88-8E7E99CE0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F582B3-1973-C64B-949A-DE38FAADD00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{619AB4DB-3177-AC42-A5CA-863D5806F19D}"/>
   </bookViews>
@@ -193,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +205,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="ArialMT"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,9 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -552,7 +567,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -566,282 +581,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
     </row>
